--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773838B-9828-49AA-BB55-59A37F321122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8640F183-AF89-4CFF-9AFB-0B1145D0087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="1207" windowWidth="18193" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1207" windowWidth="18193" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8640F183-AF89-4CFF-9AFB-0B1145D0087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC389B-F1B6-40F2-9774-0F6D3BB9CED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1207" windowWidth="18193" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Case</t>
   </si>
@@ -81,9 +81,6 @@
     <t>12 Category sectors placed randomly</t>
   </si>
   <si>
-    <t>Add POINTS to SCORE</t>
-  </si>
-  <si>
     <t>Store SCORE for first ROUND during second</t>
   </si>
   <si>
@@ -129,10 +126,16 @@
     <t>Game board</t>
   </si>
   <si>
-    <t>Player's scores</t>
-  </si>
-  <si>
-    <t>Buzzer</t>
+    <t>Player turn</t>
+  </si>
+  <si>
+    <t>Spin Button</t>
+  </si>
+  <si>
+    <t>Add POINTS to SCORE (correct answer)</t>
+  </si>
+  <si>
+    <t>Subtract POINTS to SCORE (incorrect answer)</t>
   </si>
 </sst>
 </file>
@@ -223,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:D80" totalsRowShown="0">
-  <autoFilter ref="A1:D80" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:D83" totalsRowShown="0">
+  <autoFilter ref="A1:D83" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F18EA425-49B1-4D6D-B1FC-5E12DC7B75F1}" name="Requirement"/>
     <tableColumn id="6" xr3:uid="{721A8C16-EA15-4E92-B14B-B1A7299FD94B}" name="Case"/>
@@ -498,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5859375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.29296875" customWidth="1"/>
     <col min="3" max="3" width="52.05859375" customWidth="1"/>
     <col min="4" max="4" width="30.703125" customWidth="1"/>
@@ -536,7 +539,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -544,17 +547,17 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -562,17 +565,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -580,17 +583,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -598,17 +601,17 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -616,17 +619,17 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -634,12 +637,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
@@ -660,12 +663,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
@@ -678,17 +681,17 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -696,17 +699,17 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -714,17 +717,17 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -732,17 +735,17 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -750,17 +753,17 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -768,12 +771,12 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
@@ -786,7 +789,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -794,17 +797,17 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -812,29 +815,26 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B52" t="s">
@@ -842,13 +842,16 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -856,17 +859,17 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -874,17 +877,17 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -892,29 +895,26 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B65" t="s">
@@ -922,13 +922,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -936,29 +939,26 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="A70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B72" t="s">
@@ -966,13 +966,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B73" t="s">
-        <v>29</v>
-      </c>
+      <c r="A73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -980,17 +983,17 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -998,12 +1001,30 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B79" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B82" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC389B-F1B6-40F2-9774-0F6D3BB9CED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2834FF-8306-4A5A-932E-817E7BC15FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1207" windowWidth="18193" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,10 +132,10 @@
     <t>Spin Button</t>
   </si>
   <si>
-    <t>Add POINTS to SCORE (correct answer)</t>
-  </si>
-  <si>
     <t>Subtract POINTS to SCORE (incorrect answer)</t>
+  </si>
+  <si>
+    <t>Add points to score (correct answer)</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -789,7 +790,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -807,7 +808,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE80B0E-1446-47D8-A5F0-3C12AD36671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D6E97-1925-41B0-B69E-5F045374A223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1507" yWindow="2007" windowWidth="24020" windowHeight="11526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>Case</t>
   </si>
@@ -214,6 +214,34 @@
   </si>
   <si>
     <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Round 2 is over</t>
+  </si>
+  <si>
+    <t>Expected winner for hard-coded dummy game is displayed as the game winner</t>
+  </si>
+  <si>
+    <t>1. Create a dummy game
+2. Set final score for all players
+3. Confirm show_winner() function returns correct player</t>
+  </si>
+  <si>
+    <t>Confirm what is displayed matches what is stored for player scores</t>
+  </si>
+  <si>
+    <t>1. Create a dummy game
+2. Set current scores
+3. Confirm correct scores are displayed</t>
+  </si>
+  <si>
+    <t>Hard-coded player scores should be the same as the scores displayed</t>
   </si>
 </sst>
 </file>
@@ -293,7 +321,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -341,16 +372,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:G88" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:G88" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F18EA425-49B1-4D6D-B1FC-5E12DC7B75F1}" name="Requirement" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{721A8C16-EA15-4E92-B14B-B1A7299FD94B}" name="Case" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B7B50D22-EF10-4515-B9FA-B146B40A4F30}" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{13BC7DF3-F0EC-49F1-87E3-3457F3E461B1}" name="Precondition" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1833C2F2-93DD-425F-9EF6-3F709D80AF77}" name="Assumptions" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{7EF7C37A-97C2-42C1-AE08-888D02434045}" name="Test Steps" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:H88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H88" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F18EA425-49B1-4D6D-B1FC-5E12DC7B75F1}" name="Requirement" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{721A8C16-EA15-4E92-B14B-B1A7299FD94B}" name="Case" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B7B50D22-EF10-4515-B9FA-B146B40A4F30}" name="Description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{13BC7DF3-F0EC-49F1-87E3-3457F3E461B1}" name="Precondition" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1833C2F2-93DD-425F-9EF6-3F709D80AF77}" name="Assumptions" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7EF7C37A-97C2-42C1-AE08-888D02434045}" name="Test Steps" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{67F35970-CC48-4104-9E8F-8A6ADEBEFF37}" name="Expected Result" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,25 +651,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="36.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.3515625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="52.05859375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.9375" style="1"/>
+    <col min="3" max="7" width="52.05859375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.9375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -657,10 +689,13 @@
         <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -670,8 +705,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -681,21 +717,49 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -705,18 +769,19 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -726,8 +791,9 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
@@ -735,7 +801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -743,7 +809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
@@ -751,12 +817,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
@@ -764,17 +830,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -784,18 +850,19 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -805,18 +872,19 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -826,8 +894,9 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
@@ -835,7 +904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
@@ -843,7 +912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -853,8 +922,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -864,18 +934,19 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
@@ -885,18 +956,19 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
@@ -906,18 +978,19 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
@@ -927,18 +1000,19 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -948,18 +1022,19 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -969,18 +1044,19 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
@@ -990,18 +1066,19 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -1011,8 +1088,9 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>34</v>
       </c>
@@ -1022,18 +1100,19 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>33</v>
       </c>
@@ -1043,18 +1122,19 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>18</v>
       </c>
@@ -1064,18 +1144,19 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1166,9 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
@@ -1096,18 +1178,19 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
@@ -1117,18 +1200,19 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -1138,18 +1222,19 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B66" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>14</v>
       </c>
@@ -1159,18 +1244,19 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B69" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
@@ -1180,8 +1266,9 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>24</v>
       </c>
@@ -1191,18 +1278,19 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B73" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>10</v>
       </c>
@@ -1212,18 +1300,19 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B76" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B77" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
         <v>15</v>
       </c>
@@ -1233,8 +1322,9 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>9</v>
       </c>
@@ -1244,18 +1334,19 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B80" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B81" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>25</v>
       </c>
@@ -1265,18 +1356,19 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B83" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>26</v>
       </c>
@@ -1286,13 +1378,14 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B86" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B87" s="1" t="s">
         <v>41</v>
       </c>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D6E97-1925-41B0-B69E-5F045374A223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C25EEA-9661-4CAB-9A44-32FF12969968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1507" yWindow="2007" windowWidth="24020" windowHeight="11526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1093" yWindow="1487" windowWidth="24434" windowHeight="12046" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="123">
   <si>
     <t>Case</t>
   </si>
@@ -156,27 +156,15 @@
     <t xml:space="preserve">Case 1: </t>
   </si>
   <si>
-    <t>Case 1: Wheeldisplays expected sectors</t>
-  </si>
-  <si>
     <t>Case 1: Current player's turn is displayed</t>
   </si>
   <si>
     <t>Highlight the current player's turn</t>
   </si>
   <si>
-    <t>Case 2: Opponent's choice is highlighted</t>
-  </si>
-  <si>
-    <t>Clearly indicate which player will make an "oppontn's choice"</t>
-  </si>
-  <si>
     <t>Case 2: Spin counter must not display beyond 50 per round</t>
   </si>
   <si>
-    <t>Case 3: Lost turn is clearly displayed</t>
-  </si>
-  <si>
     <t>Clearly indicate when a player loses their turn (wheel sector)</t>
   </si>
   <si>
@@ -192,21 +180,9 @@
     <t>The spin button must not react to other players when it is not their turn</t>
   </si>
   <si>
-    <t>Case 4: Free turn token is displayed for any players who have earned one</t>
-  </si>
-  <si>
-    <t>Case 5: Players may only use their free turn token(s) when it is their turn</t>
-  </si>
-  <si>
     <t>Players cannot use their free turn token when it is still another player's turn</t>
   </si>
   <si>
-    <t>Case 6: Free turn token is consumed when it is the player's turn and they click on the token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 7: </t>
-  </si>
-  <si>
     <t>Precondition</t>
   </si>
   <si>
@@ -226,22 +202,220 @@
   </si>
   <si>
     <t>Expected winner for hard-coded dummy game is displayed as the game winner</t>
+  </si>
+  <si>
+    <t>Hard-coded player scores should be the same as the scores displayed</t>
+  </si>
+  <si>
+    <t>Case 3: Score displayed increases equal to points for questions answered correctly</t>
+  </si>
+  <si>
+    <t>Case 4: Score displayed dencreases equal to points for questions answered incorrectly</t>
+  </si>
+  <si>
+    <t>Question answered correctly</t>
+  </si>
+  <si>
+    <t>Question answered incorrectly</t>
+  </si>
+  <si>
+    <t>We should we the score in the GUI change based on the game logic</t>
+  </si>
+  <si>
+    <t>The points displayed for the GUI should match their points based on the game logic</t>
+  </si>
+  <si>
+    <t>50 previous spins</t>
+  </si>
+  <si>
+    <t>Rounds are limited to 50 spins even if questions remain on the game board</t>
+  </si>
+  <si>
+    <t>Some number of spins less than 50</t>
+  </si>
+  <si>
+    <t>Trigger round 2 or end game</t>
+  </si>
+  <si>
+    <t>Display correct spin count</t>
+  </si>
+  <si>
+    <t>Player presses the spin button</t>
+  </si>
+  <si>
+    <t>Case 1: Wheel displays expected sectors</t>
+  </si>
+  <si>
+    <t>Case 2: Wheel highlights sector after spin</t>
+  </si>
+  <si>
+    <t>Player landed on "bankrupt" wheel sector</t>
+  </si>
+  <si>
+    <t>Case 5: Player's score displays 0 after landing on "bankrupt" wheel sector</t>
+  </si>
+  <si>
+    <t>Player scores should display 0 when they go bankrupt</t>
+  </si>
+  <si>
+    <t>The player who landed on bankrupt should display a score of zero</t>
+  </si>
+  <si>
+    <t>Case 1: Verify category sectors are not placed in order</t>
+  </si>
+  <si>
+    <t>There should be some indication a player is using their free turn, so it does not seem odd they are going twice</t>
+  </si>
+  <si>
+    <t>It should be clear when a player consumes a free turn token</t>
+  </si>
+  <si>
+    <t>This is necessary for the player to use the token and for other players to strategize</t>
+  </si>
+  <si>
+    <t>Player landed on "opponent's choice" sector</t>
+  </si>
+  <si>
+    <t>Player landed on "lose turn" sector</t>
+  </si>
+  <si>
+    <t>Case 3: Opponent's choice is highlighted</t>
+  </si>
+  <si>
+    <t>Case 4: Lost turn is clearly displayed</t>
+  </si>
+  <si>
+    <t>Case 5: Free turn token is displayed for any players who have earned one</t>
+  </si>
+  <si>
+    <t>Case 6: Players may only use their free turn token(s) when it is their turn</t>
+  </si>
+  <si>
+    <t>Case 7: Free turn token is consumed when it is the player's turn and they click on the token</t>
+  </si>
+  <si>
+    <t>Case 8: GUI displays player is in a free turn state</t>
+  </si>
+  <si>
+    <t>Case 2: Player's choice is clearly highlighted</t>
+  </si>
+  <si>
+    <t>Clearly indicate which player will make an "oppontn's choice" (category)</t>
+  </si>
+  <si>
+    <t>Clearly indicate the player must choose a category</t>
+  </si>
+  <si>
+    <t>Player landed on "player's choice" sector</t>
+  </si>
+  <si>
+    <t>Player previously landed on "free turn" sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create dummy game
+2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 3: </t>
+  </si>
+  <si>
+    <t>Player's turn and they chose to use their "free turn" token</t>
+  </si>
+  <si>
+    <t>1. Create dummy game
+2. Trigger category sector
+3. Trigger player selecting a category
+4. Verify choice is displayed</t>
+  </si>
+  <si>
+    <t>Player's choice is highlighted</t>
+  </si>
+  <si>
+    <t>All player turns are successfully verfied</t>
+  </si>
+  <si>
+    <t>Case 1: Verify "lose turn" sector is displayed</t>
+  </si>
+  <si>
+    <t>Case 1: Verify "free turn" sector is displayed</t>
+  </si>
+  <si>
+    <t>Case 1: Verify "bankrupt" sector is displayed</t>
+  </si>
+  <si>
+    <t>Case 1: Verify "player's choice" sector is displayed</t>
+  </si>
+  <si>
+    <t>Case 1: Verify "opponent's choice" sector is displayed</t>
+  </si>
+  <si>
+    <t>Case 1: Verify "spin again" sector is displayed</t>
+  </si>
+  <si>
+    <t>Case 9: Verify player is notified to spin when they land on "spin again" sector</t>
+  </si>
+  <si>
+    <t>Must verify all required sectors are present for any given spin</t>
+  </si>
+  <si>
+    <t>Verify what is displayed matches what is stored for player scores</t>
+  </si>
+  <si>
+    <t>1. Create a dummy game
+2. Set current scores
+3. Verify correct scores are displayed</t>
   </si>
   <si>
     <t>1. Create a dummy game
 2. Set final score for all players
-3. Confirm show_winner() function returns correct player</t>
-  </si>
-  <si>
-    <t>Confirm what is displayed matches what is stored for player scores</t>
+3. Verify show_winner() function returns correct player</t>
   </si>
   <si>
     <t>1. Create a dummy game
 2. Set current scores
-3. Confirm correct scores are displayed</t>
-  </si>
-  <si>
-    <t>Hard-coded player scores should be the same as the scores displayed</t>
+3. Trigger a question answered correctly
+4. Verify points increase in GUI</t>
+  </si>
+  <si>
+    <t>1. Create a dummy game
+2. Set current scores
+3. Trigger a question answered incorrectly
+4. Verify points dencrease in GUI</t>
+  </si>
+  <si>
+    <t>1. Create a dummy game
+2. Trigger bankrupt sector for a player
+3. Verify same player displays score of 0 thereafter</t>
+  </si>
+  <si>
+    <t>Need to Verify the GUI displays the correct number of spins based on the game logic</t>
+  </si>
+  <si>
+    <t>1. Create dummy game
+2. Trigger a spin
+3. Verify GUI matches number of spins based on game logic</t>
+  </si>
+  <si>
+    <t>1. Create dummy game
+2. Trigger 50 spins
+3. Verify GUI cannot display &gt;50 spin count based on game logic</t>
+  </si>
+  <si>
+    <t>1. Create dummy game
+2. Verify current player's turn is displayed
+3. Loop through a few turns for different players and verify turn is displayed for each</t>
+  </si>
+  <si>
+    <t>Verify game board has six categories</t>
+  </si>
+  <si>
+    <t>Verify game board has five questions per category (30 total)</t>
+  </si>
+  <si>
+    <t>Verify wheel displays required sectors on any given turn</t>
+  </si>
+  <si>
+    <t>Verify wheel makes it clear to players which wheel sector was selected</t>
   </si>
 </sst>
 </file>
@@ -372,8 +546,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:H88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H88" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:H86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H86" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F18EA425-49B1-4D6D-B1FC-5E12DC7B75F1}" name="Requirement" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{721A8C16-EA15-4E92-B14B-B1A7299FD94B}" name="Case" dataDxfId="6"/>
@@ -381,8 +555,8 @@
     <tableColumn id="4" xr3:uid="{13BC7DF3-F0EC-49F1-87E3-3457F3E461B1}" name="Precondition" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{1833C2F2-93DD-425F-9EF6-3F709D80AF77}" name="Assumptions" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{7EF7C37A-97C2-42C1-AE08-888D02434045}" name="Test Steps" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{67F35970-CC48-4104-9E8F-8A6ADEBEFF37}" name="Expected Result" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{67F35970-CC48-4104-9E8F-8A6ADEBEFF37}" name="Expected Result" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -651,13 +825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -680,16 +854,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -724,19 +898,19 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43" x14ac:dyDescent="0.5">
@@ -747,43 +921,81 @@
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -793,206 +1005,368 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="43" x14ac:dyDescent="0.5">
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A27" s="4" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A30" s="4" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1002,36 +1376,61 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="4" t="s">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
@@ -1046,348 +1445,430 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B44" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B46" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B47" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B52" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B50" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B51" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B53" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B54" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B56" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B57" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B62" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B60" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B64" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B61" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B65" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B63" s="1" t="s">
+      <c r="F65" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B67" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B64" s="1" t="s">
+      <c r="F67" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B68" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B66" s="1" t="s">
+      <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B71" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B67" s="1" t="s">
+      <c r="F71" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B72" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B69" s="1" t="s">
+      <c r="F72" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B74" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B70" s="1" t="s">
+      <c r="F74" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B75" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A72" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B73" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B78" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B74" s="1" t="s">
+      <c r="F78" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B79" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B76" s="1" t="s">
+      <c r="F79" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B81" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B77" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B82" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B80" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B84" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B81" s="1" t="s">
+      <c r="F84" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B85" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A82" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B83" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B84" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F85" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B86" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C25EEA-9661-4CAB-9A44-32FF12969968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCFBC0-9028-43C1-8777-EC15E5A79D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1093" yWindow="1487" windowWidth="24434" windowHeight="12046" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conformance &amp; FunctionalTesting" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression Testing" sheetId="2" r:id="rId2"/>
+    <sheet name="Unit Testing" sheetId="3" r:id="rId3"/>
+    <sheet name="System Testing" sheetId="4" r:id="rId4"/>
+    <sheet name="Performance Testing" sheetId="5" r:id="rId5"/>
+    <sheet name="Compatibility Testing" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="146">
   <si>
     <t>Case</t>
   </si>
@@ -60,18 +65,6 @@
     <t>Maximum 50 spins per ROUND</t>
   </si>
   <si>
-    <t>Two ROUNDS per GAME</t>
-  </si>
-  <si>
-    <t>Double point rewards in second ROUND</t>
-  </si>
-  <si>
-    <t>Add SCORES at end of second ROUND</t>
-  </si>
-  <si>
-    <t>Highest total SCOREwins GAME</t>
-  </si>
-  <si>
     <t>Game Logic - Game Board</t>
   </si>
   <si>
@@ -81,9 +74,6 @@
     <t>12 Category sectors placed randomly</t>
   </si>
   <si>
-    <t>Store SCORE for first ROUND during second</t>
-  </si>
-  <si>
     <t>1 Free turn sector</t>
   </si>
   <si>
@@ -124,12 +114,6 @@
   </si>
   <si>
     <t>Spin Button</t>
-  </si>
-  <si>
-    <t>Subtract POINTS to SCORE (incorrect answer)</t>
-  </si>
-  <si>
-    <t>Add points to score (correct answer)</t>
   </si>
   <si>
     <t>Case 1: Correct player scores are displayed</t>
@@ -416,6 +400,96 @@
   </si>
   <si>
     <t>Verify wheel makes it clear to players which wheel sector was selected</t>
+  </si>
+  <si>
+    <t>Case 1: Player's score increases when a question is answered correctly</t>
+  </si>
+  <si>
+    <t>Case 2: Player spins again after answering a question correctly</t>
+  </si>
+  <si>
+    <t>Case 1: Player's score decreases when a question is answered incorrectly</t>
+  </si>
+  <si>
+    <t>Case 2: Spin control moves to the next player after a player answers a question incorrectly</t>
+  </si>
+  <si>
+    <t>Correct answer to category question</t>
+  </si>
+  <si>
+    <t>Incorrect answer to category question</t>
+  </si>
+  <si>
+    <t>Two rounds per game</t>
+  </si>
+  <si>
+    <t>Double point rewards in second round</t>
+  </si>
+  <si>
+    <t>Store score for firstround during second</t>
+  </si>
+  <si>
+    <t>Add round scores at end of second round</t>
+  </si>
+  <si>
+    <t>Highest total score wins game</t>
+  </si>
+  <si>
+    <t>All first round questions answered OR first round spin count is 50</t>
+  </si>
+  <si>
+    <t>Case 2: Verify second round starts</t>
+  </si>
+  <si>
+    <t>Case 1: Verify first round ends</t>
+  </si>
+  <si>
+    <t>Case 1: Verify highest score is designated the winner</t>
+  </si>
+  <si>
+    <t>Case 2: Verify game ends after the winner is designated</t>
+  </si>
+  <si>
+    <t>Case 1: Verify round two questions reward double the points of round one questions</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>Skeletal increment completed</t>
+  </si>
+  <si>
+    <t>Working on completing minimal increment</t>
+  </si>
+  <si>
+    <t>Minimal increment completed</t>
+  </si>
+  <si>
+    <t>Working on completing target increment</t>
+  </si>
+  <si>
+    <t>Case 2: Verify skeletal, minimal, and target tests complete successfully</t>
+  </si>
+  <si>
+    <t>Case 1: Verify skeletal and minimal  tests complete successfully</t>
+  </si>
+  <si>
+    <t>Need to make sure software does not regreess</t>
+  </si>
+  <si>
+    <t>Run all skeletal and minimal tests</t>
+  </si>
+  <si>
+    <t>Run all skeletal, minimal,and target tests</t>
+  </si>
+  <si>
+    <t>All skeletal and minimal tests complete successfully</t>
+  </si>
+  <si>
+    <t>All skeletal, minimal, and target tests complete successfully</t>
+  </si>
+  <si>
+    <t>Increment</t>
   </si>
 </sst>
 </file>
@@ -495,7 +569,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -546,19 +629,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:H86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H86" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F18EA425-49B1-4D6D-B1FC-5E12DC7B75F1}" name="Requirement" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{721A8C16-EA15-4E92-B14B-B1A7299FD94B}" name="Case" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B7B50D22-EF10-4515-B9FA-B146B40A4F30}" name="Description" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{13BC7DF3-F0EC-49F1-87E3-3457F3E461B1}" name="Precondition" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1833C2F2-93DD-425F-9EF6-3F709D80AF77}" name="Assumptions" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{7EF7C37A-97C2-42C1-AE08-888D02434045}" name="Test Steps" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{67F35970-CC48-4104-9E8F-8A6ADEBEFF37}" name="Expected Result" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:I86" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:I86" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F18EA425-49B1-4D6D-B1FC-5E12DC7B75F1}" name="Requirement" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{721A8C16-EA15-4E92-B14B-B1A7299FD94B}" name="Case" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B7B50D22-EF10-4515-B9FA-B146B40A4F30}" name="Description" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{2E92035F-98EE-4B23-8014-D9F3467E3B22}" name="Increment" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{13BC7DF3-F0EC-49F1-87E3-3457F3E461B1}" name="Precondition" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1833C2F2-93DD-425F-9EF6-3F709D80AF77}" name="Assumptions" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{7EF7C37A-97C2-42C1-AE08-888D02434045}" name="Test Steps" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{67F35970-CC48-4104-9E8F-8A6ADEBEFF37}" name="Expected Result" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5EE02CB0-4893-4E8E-9969-88D2524E019E}" name="Table2" displayName="Table2" ref="A1:H5" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:H5" xr:uid="{5EE02CB0-4893-4E8E-9969-88D2524E019E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B4AACE88-7448-4FF5-8913-127ED4FE97EF}" name="Requirement"/>
+    <tableColumn id="2" xr3:uid="{44E66857-EE56-435D-8BAF-4A9D1A5729E8}" name="Case"/>
+    <tableColumn id="3" xr3:uid="{00B191C5-9786-49F0-B790-CD15BEDC9750}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{550483BB-9BC3-4618-85F5-72190203199F}" name="Precondition"/>
+    <tableColumn id="5" xr3:uid="{28D87306-FA09-4B95-B17A-662D77D44B96}" name="Assumptions"/>
+    <tableColumn id="6" xr3:uid="{98D9EADA-87C9-42FF-AD02-155D761C9237}" name="Test Steps"/>
+    <tableColumn id="7" xr3:uid="{DC336FB2-250B-4DE6-8813-304AF27EC0BB}" name="Expected Result"/>
+    <tableColumn id="8" xr3:uid="{F62DA725-DB26-4F35-87E5-25175470D47A}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{919FB054-7593-42C8-A4C0-EB4DD76DFCA9}" name="Table3" displayName="Table3" ref="A1:I25" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I25" xr:uid="{919FB054-7593-42C8-A4C0-EB4DD76DFCA9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C312C8DB-9977-4F12-80FF-E233CB881743}" name="Requirement"/>
+    <tableColumn id="2" xr3:uid="{9148F8DF-4203-4BA8-BB65-68C96C269040}" name="Case"/>
+    <tableColumn id="3" xr3:uid="{6DB0CAB3-F85E-4C7D-A58E-58C195665ED0}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{72FD89B5-3E42-41F2-8D46-885F803B9BB4}" name="Increment"/>
+    <tableColumn id="5" xr3:uid="{9423C41D-9F24-4646-9C83-6056A6F1AA3F}" name="Precondition"/>
+    <tableColumn id="6" xr3:uid="{7A33407F-D2C1-4ECF-B6D0-39CE2FE26224}" name="Assumptions"/>
+    <tableColumn id="7" xr3:uid="{B7D9092F-4D56-4B5C-9F62-432ED89F4130}" name="Test Steps"/>
+    <tableColumn id="8" xr3:uid="{80AB0B8A-2C05-4A72-B1A4-F8D498DF4ADE}" name="Expected Result"/>
+    <tableColumn id="9" xr3:uid="{5126584F-D5D0-4529-B32E-9E292B039783}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -825,25 +944,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="36.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.3515625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="52.05859375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.9375" style="1"/>
+    <col min="3" max="3" width="52.05859375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.64453125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="52.05859375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.9375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -854,22 +975,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -880,10 +1004,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -892,110 +1017,111 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+        <v>107</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1004,50 +1130,51 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43" x14ac:dyDescent="0.5">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1056,157 +1183,158 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="43" x14ac:dyDescent="0.5">
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="B14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="43" x14ac:dyDescent="0.5">
-      <c r="B19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1215,32 +1343,33 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+        <v>113</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1249,32 +1378,33 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1283,30 +1413,31 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1317,10 +1448,11 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1329,21 +1461,22 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1352,21 +1485,22 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1375,21 +1509,22 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1398,21 +1533,22 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1421,21 +1557,22 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1444,21 +1581,22 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1467,19 +1605,20 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -1490,10 +1629,11 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1502,26 +1642,27 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>116</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+        <v>117</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1530,66 +1671,75 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>118</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>119</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1598,26 +1748,27 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>132</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1626,26 +1777,27 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1654,26 +1806,27 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1682,24 +1835,25 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -1710,10 +1864,11 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1722,24 +1877,25 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>10</v>
       </c>
@@ -1750,26 +1906,27 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1778,8 +1935,9 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>9</v>
       </c>
@@ -1790,26 +1948,27 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1818,26 +1977,27 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1846,29 +2006,30 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1879,4 +2040,204 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9ECF97-4F18-456D-8ABE-DE97ED350BFF}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="18.64453125" customWidth="1"/>
+    <col min="2" max="2" width="31.8203125" customWidth="1"/>
+    <col min="3" max="8" width="26.76171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49321C6B-FD99-41D8-B951-562CF171DB42}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="9" width="22.703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72C445E-AD09-45AA-9AC4-4B7613DCF09C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B062DE5A-D475-43F0-8251-163B265C0746}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB9555A-E6CF-440D-A1B3-ECA13DDEF025}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCFBC0-9028-43C1-8777-EC15E5A79D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4FE210-AE72-4090-96F5-B34FE3E5606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1093" yWindow="1487" windowWidth="24434" windowHeight="12046" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6227" yWindow="1347" windowWidth="24433" windowHeight="12046" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance &amp; FunctionalTesting" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
   <si>
     <t>Case</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>Case 2: Game board displays correct number of questions per category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 2: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 1: </t>
   </si>
   <si>
     <t>Case 1: Current player's turn is displayed</t>
@@ -298,9 +292,6 @@
   <si>
     <t xml:space="preserve">1. Create dummy game
 2. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 3: </t>
   </si>
   <si>
     <t>Player's turn and they chose to use their "free turn" token</t>
@@ -490,6 +481,30 @@
   </si>
   <si>
     <t>Increment</t>
+  </si>
+  <si>
+    <t>Case 1: Verify first round score is stored</t>
+  </si>
+  <si>
+    <t>Case 1: Verify round scores are added to create total score</t>
+  </si>
+  <si>
+    <t>Case 1: Verify spin counter increments by one for each spin</t>
+  </si>
+  <si>
+    <t>Case 1: Verify spin counter cannot increment past 50 spins per round</t>
+  </si>
+  <si>
+    <t>Case 1: Verify questions have multiple choices</t>
+  </si>
+  <si>
+    <t>Case 2: Verify only one choice may be selected per question</t>
+  </si>
+  <si>
+    <t>Case 1: Verify there are exactly six question categories</t>
+  </si>
+  <si>
+    <t>Case 1: Verify there are exactly five questions per category</t>
   </si>
 </sst>
 </file>
@@ -629,25 +644,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:I86" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:I86" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}" name="Table1" displayName="Table1" ref="A1:I78" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:I78" xr:uid="{3C9BB5DA-C786-439D-82F7-FC645716A5F1}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F18EA425-49B1-4D6D-B1FC-5E12DC7B75F1}" name="Requirement" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{721A8C16-EA15-4E92-B14B-B1A7299FD94B}" name="Case" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{B7B50D22-EF10-4515-B9FA-B146B40A4F30}" name="Description" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{2E92035F-98EE-4B23-8014-D9F3467E3B22}" name="Increment" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{13BC7DF3-F0EC-49F1-87E3-3457F3E461B1}" name="Precondition" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1833C2F2-93DD-425F-9EF6-3F709D80AF77}" name="Assumptions" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7EF7C37A-97C2-42C1-AE08-888D02434045}" name="Test Steps" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{67F35970-CC48-4104-9E8F-8A6ADEBEFF37}" name="Expected Result" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{2E92035F-98EE-4B23-8014-D9F3467E3B22}" name="Increment" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{13BC7DF3-F0EC-49F1-87E3-3457F3E461B1}" name="Precondition" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1833C2F2-93DD-425F-9EF6-3F709D80AF77}" name="Assumptions" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7EF7C37A-97C2-42C1-AE08-888D02434045}" name="Test Steps" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{67F35970-CC48-4104-9E8F-8A6ADEBEFF37}" name="Expected Result" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{93B38700-C551-4A2D-AB12-628E35CC8936}" name="Notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5EE02CB0-4893-4E8E-9969-88D2524E019E}" name="Table2" displayName="Table2" ref="A1:H5" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5EE02CB0-4893-4E8E-9969-88D2524E019E}" name="Table2" displayName="Table2" ref="A1:H5" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:H5" xr:uid="{5EE02CB0-4893-4E8E-9969-88D2524E019E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4AACE88-7448-4FF5-8913-127ED4FE97EF}" name="Requirement"/>
@@ -944,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A79:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -975,19 +990,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1024,19 +1039,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43" x14ac:dyDescent="0.5">
@@ -1047,76 +1062,76 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
@@ -1137,39 +1152,39 @@
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
@@ -1187,149 +1202,149 @@
     </row>
     <row r="13" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
@@ -1350,10 +1365,10 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
@@ -1361,10 +1376,10 @@
         <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
@@ -1382,24 +1397,24 @@
     </row>
     <row r="26" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
@@ -1417,24 +1432,24 @@
     </row>
     <row r="29" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
@@ -1465,13 +1480,13 @@
     </row>
     <row r="33" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
@@ -1489,13 +1504,13 @@
     </row>
     <row r="35" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
@@ -1513,13 +1528,13 @@
     </row>
     <row r="37" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
@@ -1537,13 +1552,13 @@
     </row>
     <row r="39" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.5">
@@ -1561,13 +1576,13 @@
     </row>
     <row r="41" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
@@ -1585,13 +1600,13 @@
     </row>
     <row r="43" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
@@ -1609,13 +1624,13 @@
     </row>
     <row r="45" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
@@ -1633,7 +1648,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1646,23 +1661,23 @@
     </row>
     <row r="48" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1675,18 +1690,18 @@
     </row>
     <row r="51" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.5">
@@ -1704,7 +1719,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1717,29 +1732,29 @@
     </row>
     <row r="55" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1752,52 +1767,57 @@
     </row>
     <row r="58" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A60" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1810,136 +1830,141 @@
     </row>
     <row r="64" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A66" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A73" s="4" t="s">
+      <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1952,84 +1977,10 @@
     </row>
     <row r="78" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B81" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B82" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B85" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2071,16 +2022,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2088,7 +2039,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2110,42 +2061,42 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2180,19 +2131,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4FE210-AE72-4090-96F5-B34FE3E5606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908FCCBC-A6E3-484F-B290-D539F7C310E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6227" yWindow="1347" windowWidth="24433" windowHeight="12046" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1107" yWindow="1633" windowWidth="24433" windowHeight="12047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance &amp; FunctionalTesting" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="160">
   <si>
     <t>Case</t>
   </si>
@@ -393,15 +393,6 @@
     <t>Verify wheel makes it clear to players which wheel sector was selected</t>
   </si>
   <si>
-    <t>Case 1: Player's score increases when a question is answered correctly</t>
-  </si>
-  <si>
-    <t>Case 2: Player spins again after answering a question correctly</t>
-  </si>
-  <si>
-    <t>Case 1: Player's score decreases when a question is answered incorrectly</t>
-  </si>
-  <si>
     <t>Case 2: Spin control moves to the next player after a player answers a question incorrectly</t>
   </si>
   <si>
@@ -505,6 +496,42 @@
   </si>
   <si>
     <t>Case 1: Verify there are exactly five questions per category</t>
+  </si>
+  <si>
+    <t>Case 1: Verify player's score decreases when a question is answered incorrectly</t>
+  </si>
+  <si>
+    <t>Case 2: Verify player spins again after answering a question correctly</t>
+  </si>
+  <si>
+    <t>Case 1: Verify player's score increases when a question is answered correctly</t>
+  </si>
+  <si>
+    <t>Skeletal</t>
+  </si>
+  <si>
+    <t>Player has spun the wheel</t>
+  </si>
+  <si>
+    <t>Spin button pressed</t>
+  </si>
+  <si>
+    <t>Landed on category or choice sector</t>
+  </si>
+  <si>
+    <t>Round 1 has been completed</t>
+  </si>
+  <si>
+    <t>Scores have been totaled after round 2</t>
+  </si>
+  <si>
+    <t>Player spun the wheel</t>
+  </si>
+  <si>
+    <t>Players spun the wheel 50 times</t>
+  </si>
+  <si>
+    <t>Player landed on category or choice sector</t>
   </si>
 </sst>
 </file>
@@ -962,10 +989,10 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A79:XFD80"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -990,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
@@ -1041,6 +1068,9 @@
       <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1061,6 +1091,9 @@
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
@@ -1081,6 +1114,9 @@
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1100,6 +1136,9 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>54</v>
@@ -1207,6 +1246,9 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1367,6 +1409,12 @@
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>86</v>
       </c>
@@ -1377,6 +1425,12 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>86</v>
@@ -1402,6 +1456,12 @@
       <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>86</v>
       </c>
@@ -1412,6 +1472,9 @@
       </c>
       <c r="C27" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>86</v>
@@ -1437,6 +1500,9 @@
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
       </c>
@@ -1447,6 +1513,9 @@
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>86</v>
@@ -1485,6 +1554,12 @@
       <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>86</v>
       </c>
@@ -1509,6 +1584,9 @@
       <c r="C35" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>86</v>
       </c>
@@ -1533,6 +1611,9 @@
       <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>86</v>
       </c>
@@ -1557,6 +1638,9 @@
       <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>86</v>
       </c>
@@ -1581,6 +1665,9 @@
       <c r="C41" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>86</v>
       </c>
@@ -1605,6 +1692,9 @@
       <c r="C43" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>86</v>
       </c>
@@ -1629,6 +1719,9 @@
       <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1648,7 +1741,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1661,7 +1754,13 @@
     </row>
     <row r="48" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>150</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>86</v>
@@ -1669,7 +1768,10 @@
     </row>
     <row r="49" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>86</v>
@@ -1677,7 +1779,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1688,9 +1790,15 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>86</v>
@@ -1698,7 +1806,13 @@
     </row>
     <row r="52" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>86</v>
@@ -1719,7 +1833,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1732,10 +1846,13 @@
     </row>
     <row r="55" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>86</v>
@@ -1743,10 +1860,13 @@
     </row>
     <row r="56" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>86</v>
@@ -1754,7 +1874,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1767,7 +1887,13 @@
     </row>
     <row r="58" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>86</v>
@@ -1775,7 +1901,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1788,7 +1914,13 @@
     </row>
     <row r="60" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>86</v>
@@ -1796,7 +1928,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1809,7 +1941,13 @@
     </row>
     <row r="62" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>86</v>
@@ -1817,7 +1955,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1830,7 +1968,13 @@
     </row>
     <row r="64" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>86</v>
@@ -1838,7 +1982,13 @@
     </row>
     <row r="65" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>86</v>
@@ -1872,7 +2022,10 @@
     </row>
     <row r="68" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>86</v>
@@ -1893,7 +2046,10 @@
     </row>
     <row r="70" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>86</v>
@@ -1927,7 +2083,13 @@
     </row>
     <row r="73" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B73" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>86</v>
@@ -1935,7 +2097,13 @@
     </row>
     <row r="74" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>86</v>
@@ -1956,7 +2124,10 @@
     </row>
     <row r="76" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>86</v>
@@ -1977,7 +2148,10 @@
     </row>
     <row r="78" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>86</v>
@@ -2039,7 +2213,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2061,42 +2235,42 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2131,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\RetroRobotsWoJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908FCCBC-A6E3-484F-B290-D539F7C310E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F95FC-6B12-4EE8-B577-3739BF265F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1107" yWindow="1633" windowWidth="24433" windowHeight="12047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1333" yWindow="207" windowWidth="24434" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance &amp; FunctionalTesting" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="163">
   <si>
     <t>Case</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>User Interface</t>
-  </si>
-  <si>
     <t>Game Logic - Scoring</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Case 1: Current player's turn is displayed</t>
   </si>
   <si>
-    <t>Highlight the current player's turn</t>
-  </si>
-  <si>
     <t>Case 2: Spin counter must not display beyond 50 per round</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
   </si>
   <si>
     <t>Case 2: Player's choice is clearly highlighted</t>
-  </si>
-  <si>
-    <t>Clearly indicate which player will make an "oppontn's choice" (category)</t>
   </si>
   <si>
     <t>Clearly indicate the player must choose a category</t>
@@ -532,6 +523,24 @@
   </si>
   <si>
     <t>Player landed on category or choice sector</t>
+  </si>
+  <si>
+    <t>We should verify the score in the GUI change based on the game logic</t>
+  </si>
+  <si>
+    <t>Identify the current player's turn</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Clearly indicate which player will make an "opponent's choice" (category)</t>
+  </si>
+  <si>
+    <t>Player landed on "spin again" sector</t>
+  </si>
+  <si>
+    <t>GUI -- HTTP request send correct data</t>
   </si>
 </sst>
 </file>
@@ -986,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1017,19 +1026,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1037,7 +1046,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1050,7 +1059,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1063,119 +1072,107 @@
     </row>
     <row r="4" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1188,47 +1185,47 @@
     </row>
     <row r="10" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1241,157 +1238,157 @@
     </row>
     <row r="13" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1404,41 +1401,35 @@
     </row>
     <row r="23" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1451,38 +1442,35 @@
     </row>
     <row r="26" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1495,35 +1483,35 @@
     </row>
     <row r="29" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1536,7 +1524,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1549,24 +1537,21 @@
     </row>
     <row r="33" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1579,21 +1564,21 @@
     </row>
     <row r="35" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1606,21 +1591,21 @@
     </row>
     <row r="37" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1633,21 +1618,21 @@
     </row>
     <row r="39" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1660,21 +1645,21 @@
     </row>
     <row r="41" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1687,21 +1672,21 @@
     </row>
     <row r="43" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1714,21 +1699,21 @@
     </row>
     <row r="45" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1741,7 +1726,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1754,32 +1739,29 @@
     </row>
     <row r="48" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1792,35 +1774,35 @@
     </row>
     <row r="51" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1833,7 +1815,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1846,35 +1828,35 @@
     </row>
     <row r="55" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1887,21 +1869,21 @@
     </row>
     <row r="58" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1914,21 +1896,21 @@
     </row>
     <row r="60" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1941,21 +1923,21 @@
     </row>
     <row r="62" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1968,35 +1950,35 @@
     </row>
     <row r="64" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2009,7 +1991,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2022,18 +2004,18 @@
     </row>
     <row r="68" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2046,18 +2028,18 @@
     </row>
     <row r="70" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2070,7 +2052,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2083,35 +2065,35 @@
     </row>
     <row r="73" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2124,18 +2106,18 @@
     </row>
     <row r="76" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2148,13 +2130,18 @@
     </row>
     <row r="78" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2196,16 +2183,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2213,7 +2200,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2235,42 +2222,42 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2305,19 +2292,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
